--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Basislehrjahr\20_Ausbildungsmodule\2040_Projektmanagement-Eigenes Projekt\04 Vorlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE0F7B-4660-43DF-BFC5-EC2462DDAA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="597"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,26 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Benno Flory</author>
     <author>Urs Nussbaumer</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1" shapeId="0">
+    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,18 +149,6 @@
     <t>Arbeitsjournal nachführen</t>
   </si>
   <si>
-    <t>Anforderung #01</t>
-  </si>
-  <si>
-    <t>Anforderung #02</t>
-  </si>
-  <si>
-    <t>Anforderung #03</t>
-  </si>
-  <si>
-    <t>Anforderung #04</t>
-  </si>
-  <si>
     <t>Anforderung #05</t>
   </si>
   <si>
@@ -246,12 +243,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -354,7 +363,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +458,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1093,7 +1125,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1425,14 +1457,46 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
-    <cellStyle name="Gelb-Feld" xfId="2"/>
+    <cellStyle name="Gelb-Feld" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Prozent" xfId="5" builtinId="5"/>
-    <cellStyle name="schatten_blau" xfId="3"/>
+    <cellStyle name="schatten_blau" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="4"/>
+    <cellStyle name="Titel" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1528,19 +1592,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,7 +1799,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2100,14 +2170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2228,7 +2298,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="86"/>
       <c r="H3" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2358,7 +2428,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2437,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
@@ -2446,7 +2516,7 @@
       <c r="L7" s="91"/>
       <c r="M7" s="92"/>
       <c r="N7" s="91" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O7" s="91"/>
       <c r="P7" s="91"/>
@@ -2455,7 +2525,7 @@
       <c r="S7" s="91"/>
       <c r="T7" s="92"/>
       <c r="U7" s="91" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V7" s="91"/>
       <c r="W7" s="91"/>
@@ -2464,7 +2534,7 @@
       <c r="Z7" s="91"/>
       <c r="AA7" s="92"/>
       <c r="AB7" s="93" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AC7" s="91"/>
       <c r="AD7" s="91"/>
@@ -2473,7 +2543,7 @@
       <c r="AG7" s="91"/>
       <c r="AH7" s="92"/>
       <c r="AI7" s="91" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AJ7" s="91"/>
       <c r="AK7" s="91"/>
@@ -2482,7 +2552,7 @@
       <c r="AN7" s="91"/>
       <c r="AO7" s="92"/>
       <c r="AP7" s="93" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AQ7" s="91"/>
       <c r="AR7" s="91"/>
@@ -2491,7 +2561,7 @@
       <c r="AU7" s="91"/>
       <c r="AV7" s="92"/>
       <c r="AW7" s="91" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AX7" s="91"/>
       <c r="AY7" s="91"/>
@@ -2500,7 +2570,7 @@
       <c r="BB7" s="91"/>
       <c r="BC7" s="92"/>
       <c r="BD7" s="93" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="BE7" s="91"/>
       <c r="BF7" s="91"/>
@@ -2524,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>17</v>
@@ -2777,14 +2847,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2807,7 +2877,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="53"/>
+      <c r="AB10" s="104"/>
       <c r="AC10" s="54"/>
       <c r="AD10" s="55"/>
       <c r="AE10" s="55"/>
@@ -2820,7 +2890,7 @@
       <c r="AL10" s="55"/>
       <c r="AM10" s="56"/>
       <c r="AN10" s="57"/>
-      <c r="AO10" s="58"/>
+      <c r="AO10" s="105"/>
       <c r="AP10" s="53"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="55"/>
@@ -2848,7 +2918,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="83">
@@ -2884,9 +2954,9 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
+      <c r="AB11" s="104"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
+      <c r="AD11" s="55"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="56"/>
       <c r="AG11" s="57"/>
@@ -2897,7 +2967,7 @@
       <c r="AL11" s="61"/>
       <c r="AM11" s="56"/>
       <c r="AN11" s="57"/>
-      <c r="AO11" s="58"/>
+      <c r="AO11" s="105"/>
       <c r="AP11" s="59"/>
       <c r="AQ11" s="60"/>
       <c r="AR11" s="61"/>
@@ -2956,23 +3026,23 @@
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="63"/>
+      <c r="Y12" s="100"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
+      <c r="AB12" s="104"/>
       <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
+      <c r="AD12" s="55"/>
       <c r="AE12" s="61"/>
-      <c r="AF12" s="63"/>
+      <c r="AF12" s="100"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="61"/>
       <c r="AL12" s="61"/>
-      <c r="AM12" s="63"/>
+      <c r="AM12" s="100"/>
       <c r="AN12" s="57"/>
-      <c r="AO12" s="58"/>
+      <c r="AO12" s="105"/>
       <c r="AP12" s="59"/>
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
@@ -3000,17 +3070,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3033,7 +3103,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="59"/>
+      <c r="AB13" s="104"/>
       <c r="AC13" s="60"/>
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
@@ -3046,7 +3116,7 @@
       <c r="AL13" s="55"/>
       <c r="AM13" s="55"/>
       <c r="AN13" s="66"/>
-      <c r="AO13" s="67"/>
+      <c r="AO13" s="105"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
@@ -3078,7 +3148,7 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
@@ -3107,9 +3177,9 @@
       <c r="Y14" s="74"/>
       <c r="Z14" s="75"/>
       <c r="AA14" s="76"/>
-      <c r="AB14" s="77"/>
+      <c r="AB14" s="104"/>
       <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
+      <c r="AD14" s="55"/>
       <c r="AE14" s="74"/>
       <c r="AF14" s="75"/>
       <c r="AG14" s="75"/>
@@ -3120,7 +3190,7 @@
       <c r="AL14" s="74"/>
       <c r="AM14" s="75"/>
       <c r="AN14" s="75"/>
-      <c r="AO14" s="76"/>
+      <c r="AO14" s="105"/>
       <c r="AP14" s="73"/>
       <c r="AQ14" s="74"/>
       <c r="AR14" s="74"/>
@@ -3148,16 +3218,18 @@
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="49">
+        <v>3</v>
+      </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
@@ -3168,7 +3240,7 @@
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
       <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="55"/>
       <c r="R15" s="56"/>
       <c r="S15" s="57"/>
@@ -3180,7 +3252,7 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
-      <c r="AB15" s="53"/>
+      <c r="AB15" s="104"/>
       <c r="AC15" s="54"/>
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
@@ -3193,7 +3265,7 @@
       <c r="AL15" s="55"/>
       <c r="AM15" s="56"/>
       <c r="AN15" s="57"/>
-      <c r="AO15" s="58"/>
+      <c r="AO15" s="105"/>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="54"/>
       <c r="AR15" s="55"/>
@@ -3221,14 +3293,18 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="49"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="49">
+        <v>5</v>
+      </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="50">
+        <v>1</v>
+      </c>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
@@ -3239,7 +3315,7 @@
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
       <c r="O16" s="60"/>
-      <c r="P16" s="55"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="56"/>
       <c r="S16" s="57"/>
@@ -3251,7 +3327,7 @@
       <c r="Y16" s="56"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
+      <c r="AB16" s="104"/>
       <c r="AC16" s="60"/>
       <c r="AD16" s="55"/>
       <c r="AE16" s="55"/>
@@ -3264,7 +3340,7 @@
       <c r="AL16" s="55"/>
       <c r="AM16" s="56"/>
       <c r="AN16" s="57"/>
-      <c r="AO16" s="58"/>
+      <c r="AO16" s="105"/>
       <c r="AP16" s="59"/>
       <c r="AQ16" s="60"/>
       <c r="AR16" s="55"/>
@@ -3320,7 +3396,7 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
-      <c r="AB17" s="69"/>
+      <c r="AB17" s="104"/>
       <c r="AC17" s="70"/>
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
@@ -3333,7 +3409,7 @@
       <c r="AL17" s="55"/>
       <c r="AM17" s="56"/>
       <c r="AN17" s="57"/>
-      <c r="AO17" s="58"/>
+      <c r="AO17" s="105"/>
       <c r="AP17" s="69"/>
       <c r="AQ17" s="70"/>
       <c r="AR17" s="55"/>
@@ -3365,7 +3441,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3394,9 +3470,9 @@
       <c r="Y18" s="74"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="76"/>
-      <c r="AB18" s="77"/>
+      <c r="AB18" s="104"/>
       <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
+      <c r="AD18" s="55"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="75"/>
       <c r="AG18" s="75"/>
@@ -3407,7 +3483,7 @@
       <c r="AL18" s="74"/>
       <c r="AM18" s="75"/>
       <c r="AN18" s="75"/>
-      <c r="AO18" s="76"/>
+      <c r="AO18" s="105"/>
       <c r="AP18" s="73"/>
       <c r="AQ18" s="74"/>
       <c r="AR18" s="74"/>
@@ -3435,7 +3511,7 @@
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="83">
@@ -3465,7 +3541,7 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="53"/>
+      <c r="AB19" s="104"/>
       <c r="AC19" s="54"/>
       <c r="AD19" s="55"/>
       <c r="AE19" s="55"/>
@@ -3478,7 +3554,7 @@
       <c r="AL19" s="55"/>
       <c r="AM19" s="56"/>
       <c r="AN19" s="57"/>
-      <c r="AO19" s="58"/>
+      <c r="AO19" s="105"/>
       <c r="AP19" s="53"/>
       <c r="AQ19" s="54"/>
       <c r="AR19" s="55"/>
@@ -3506,14 +3582,18 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="49"/>
+        <v>54</v>
+      </c>
+      <c r="C20" s="49">
+        <v>3</v>
+      </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="50">
+        <v>2</v>
+      </c>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
@@ -3524,7 +3604,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3536,7 +3616,7 @@
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="59"/>
+      <c r="AB20" s="104"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="55"/>
       <c r="AE20" s="55"/>
@@ -3549,7 +3629,7 @@
       <c r="AL20" s="55"/>
       <c r="AM20" s="56"/>
       <c r="AN20" s="57"/>
-      <c r="AO20" s="58"/>
+      <c r="AO20" s="105"/>
       <c r="AP20" s="59"/>
       <c r="AQ20" s="60"/>
       <c r="AR20" s="55"/>
@@ -3577,9 +3657,11 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="49"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="49">
+        <v>13</v>
+      </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3595,9 +3677,9 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
@@ -3607,7 +3689,7 @@
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
+      <c r="AB21" s="104"/>
       <c r="AC21" s="60"/>
       <c r="AD21" s="55"/>
       <c r="AE21" s="55"/>
@@ -3620,7 +3702,7 @@
       <c r="AL21" s="55"/>
       <c r="AM21" s="56"/>
       <c r="AN21" s="57"/>
-      <c r="AO21" s="58"/>
+      <c r="AO21" s="105"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="55"/>
@@ -3648,9 +3730,11 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="49">
+        <v>16</v>
+      </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3668,17 +3752,17 @@
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="59"/>
+      <c r="AB22" s="104"/>
       <c r="AC22" s="60"/>
       <c r="AD22" s="55"/>
       <c r="AE22" s="55"/>
@@ -3691,7 +3775,7 @@
       <c r="AL22" s="55"/>
       <c r="AM22" s="56"/>
       <c r="AN22" s="57"/>
-      <c r="AO22" s="58"/>
+      <c r="AO22" s="105"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
       <c r="AR22" s="55"/>
@@ -3719,9 +3803,11 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="49"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="49">
+        <v>10</v>
+      </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3745,13 +3831,13 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="56"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="59"/>
+      <c r="AB23" s="104"/>
       <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
+      <c r="AD23" s="55"/>
       <c r="AE23" s="61"/>
       <c r="AF23" s="56"/>
       <c r="AG23" s="57"/>
@@ -3762,7 +3848,7 @@
       <c r="AL23" s="61"/>
       <c r="AM23" s="56"/>
       <c r="AN23" s="57"/>
-      <c r="AO23" s="58"/>
+      <c r="AO23" s="105"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="61"/>
@@ -3790,9 +3876,11 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="49"/>
+        <v>59</v>
+      </c>
+      <c r="C24" s="49">
+        <v>2</v>
+      </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3817,26 +3905,26 @@
       <c r="V24" s="60"/>
       <c r="W24" s="55"/>
       <c r="X24" s="55"/>
-      <c r="Y24" s="56"/>
+      <c r="Y24" s="63"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="59"/>
+      <c r="AB24" s="104"/>
       <c r="AC24" s="60"/>
       <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
+      <c r="AK24" s="101"/>
+      <c r="AL24" s="101"/>
+      <c r="AM24" s="101"/>
       <c r="AN24" s="57"/>
-      <c r="AO24" s="58"/>
+      <c r="AO24" s="105"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
-      <c r="AR24" s="55"/>
+      <c r="AR24" s="68"/>
       <c r="AS24" s="55"/>
       <c r="AT24" s="56"/>
       <c r="AU24" s="57"/>
@@ -3861,7 +3949,7 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="83">
@@ -3888,10 +3976,10 @@
       <c r="V25" s="60"/>
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
-      <c r="Y25" s="56"/>
+      <c r="Y25" s="100"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="59"/>
+      <c r="AB25" s="104"/>
       <c r="AC25" s="60"/>
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
@@ -3904,10 +3992,10 @@
       <c r="AL25" s="55"/>
       <c r="AM25" s="56"/>
       <c r="AN25" s="57"/>
-      <c r="AO25" s="58"/>
+      <c r="AO25" s="105"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="55"/>
+      <c r="AR25" s="68"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="56"/>
       <c r="AU25" s="57"/>
@@ -3932,7 +4020,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="83">
@@ -3959,10 +4047,10 @@
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="Y26" s="100"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="59"/>
+      <c r="AB26" s="104"/>
       <c r="AC26" s="60"/>
       <c r="AD26" s="55"/>
       <c r="AE26" s="55"/>
@@ -3975,7 +4063,7 @@
       <c r="AL26" s="55"/>
       <c r="AM26" s="56"/>
       <c r="AN26" s="57"/>
-      <c r="AO26" s="58"/>
+      <c r="AO26" s="105"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
       <c r="AR26" s="55"/>
@@ -4003,7 +4091,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="83">
@@ -4030,10 +4118,10 @@
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
       <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
+      <c r="Y27" s="100"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
+      <c r="AB27" s="104"/>
       <c r="AC27" s="60"/>
       <c r="AD27" s="55"/>
       <c r="AE27" s="55"/>
@@ -4046,7 +4134,7 @@
       <c r="AL27" s="55"/>
       <c r="AM27" s="56"/>
       <c r="AN27" s="57"/>
-      <c r="AO27" s="58"/>
+      <c r="AO27" s="105"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
@@ -4074,7 +4162,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="83">
@@ -4101,10 +4189,10 @@
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="100"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
+      <c r="AB28" s="104"/>
       <c r="AC28" s="60"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
@@ -4117,7 +4205,7 @@
       <c r="AL28" s="55"/>
       <c r="AM28" s="56"/>
       <c r="AN28" s="57"/>
-      <c r="AO28" s="58"/>
+      <c r="AO28" s="105"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
       <c r="AR28" s="55"/>
@@ -4145,7 +4233,7 @@
         <v>311</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="83">
@@ -4172,10 +4260,10 @@
       <c r="V29" s="72"/>
       <c r="W29" s="55"/>
       <c r="X29" s="55"/>
-      <c r="Y29" s="56"/>
+      <c r="Y29" s="100"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="71"/>
+      <c r="AB29" s="104"/>
       <c r="AC29" s="72"/>
       <c r="AD29" s="55"/>
       <c r="AE29" s="55"/>
@@ -4188,7 +4276,7 @@
       <c r="AL29" s="55"/>
       <c r="AM29" s="56"/>
       <c r="AN29" s="57"/>
-      <c r="AO29" s="58"/>
+      <c r="AO29" s="105"/>
       <c r="AP29" s="71"/>
       <c r="AQ29" s="72"/>
       <c r="AR29" s="55"/>
@@ -4241,10 +4329,10 @@
       <c r="V30" s="70"/>
       <c r="W30" s="55"/>
       <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
+      <c r="Y30" s="106"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="69"/>
+      <c r="AB30" s="104"/>
       <c r="AC30" s="70"/>
       <c r="AD30" s="55"/>
       <c r="AE30" s="55"/>
@@ -4257,7 +4345,7 @@
       <c r="AL30" s="55"/>
       <c r="AM30" s="56"/>
       <c r="AN30" s="57"/>
-      <c r="AO30" s="58"/>
+      <c r="AO30" s="105"/>
       <c r="AP30" s="69"/>
       <c r="AQ30" s="70"/>
       <c r="AR30" s="55"/>
@@ -4289,7 +4377,7 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4315,12 +4403,12 @@
       <c r="V31" s="74"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
+      <c r="Y31" s="102"/>
       <c r="Z31" s="75"/>
       <c r="AA31" s="76"/>
-      <c r="AB31" s="77"/>
+      <c r="AB31" s="104"/>
       <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
+      <c r="AD31" s="103"/>
       <c r="AE31" s="74"/>
       <c r="AF31" s="75"/>
       <c r="AG31" s="75"/>
@@ -4331,7 +4419,7 @@
       <c r="AL31" s="74"/>
       <c r="AM31" s="75"/>
       <c r="AN31" s="75"/>
-      <c r="AO31" s="76"/>
+      <c r="AO31" s="105"/>
       <c r="AP31" s="73"/>
       <c r="AQ31" s="74"/>
       <c r="AR31" s="74"/>
@@ -4359,9 +4447,11 @@
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="49"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="49">
+        <v>6</v>
+      </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
         <v>0</v>
@@ -4379,30 +4469,30 @@
       <c r="O32" s="54"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
+      <c r="R32" s="63"/>
       <c r="S32" s="57"/>
       <c r="T32" s="58"/>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="55"/>
       <c r="X32" s="55"/>
-      <c r="Y32" s="56"/>
+      <c r="Y32" s="63"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
-      <c r="AB32" s="53"/>
+      <c r="AB32" s="104"/>
       <c r="AC32" s="54"/>
       <c r="AD32" s="55"/>
       <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
+      <c r="AF32" s="100"/>
       <c r="AG32" s="57"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
       <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
+      <c r="AL32" s="101"/>
+      <c r="AM32" s="100"/>
       <c r="AN32" s="57"/>
-      <c r="AO32" s="58"/>
+      <c r="AO32" s="105"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="55"/>
@@ -4430,9 +4520,11 @@
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="49"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="49">
+        <v>6</v>
+      </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
         <v>0</v>
@@ -4457,10 +4549,10 @@
       <c r="V33" s="60"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="Y33" s="63"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="59"/>
+      <c r="AB33" s="104"/>
       <c r="AC33" s="60"/>
       <c r="AD33" s="55"/>
       <c r="AE33" s="55"/>
@@ -4470,15 +4562,15 @@
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
       <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="100"/>
       <c r="AN33" s="57"/>
-      <c r="AO33" s="58"/>
+      <c r="AO33" s="105"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="56"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="55"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4501,9 +4593,11 @@
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="49">
+        <v>8</v>
+      </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4528,10 +4622,10 @@
       <c r="V34" s="60"/>
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
-      <c r="Y34" s="56"/>
+      <c r="Y34" s="63"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="59"/>
+      <c r="AB34" s="104"/>
       <c r="AC34" s="60"/>
       <c r="AD34" s="55"/>
       <c r="AE34" s="55"/>
@@ -4544,11 +4638,11 @@
       <c r="AL34" s="55"/>
       <c r="AM34" s="56"/>
       <c r="AN34" s="57"/>
-      <c r="AO34" s="58"/>
+      <c r="AO34" s="105"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="55"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="68"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -4600,7 +4694,7 @@
       <c r="Y35" s="56"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="58"/>
-      <c r="AB35" s="69"/>
+      <c r="AB35" s="104"/>
       <c r="AC35" s="70"/>
       <c r="AD35" s="55"/>
       <c r="AE35" s="55"/>
@@ -4613,7 +4707,7 @@
       <c r="AL35" s="55"/>
       <c r="AM35" s="56"/>
       <c r="AN35" s="57"/>
-      <c r="AO35" s="58"/>
+      <c r="AO35" s="105"/>
       <c r="AP35" s="69"/>
       <c r="AQ35" s="70"/>
       <c r="AR35" s="55"/>
@@ -4674,7 +4768,7 @@
       <c r="Y36" s="74"/>
       <c r="Z36" s="75"/>
       <c r="AA36" s="76"/>
-      <c r="AB36" s="77"/>
+      <c r="AB36" s="104"/>
       <c r="AC36" s="74"/>
       <c r="AD36" s="74"/>
       <c r="AE36" s="74"/>
@@ -4687,7 +4781,7 @@
       <c r="AL36" s="74"/>
       <c r="AM36" s="75"/>
       <c r="AN36" s="75"/>
-      <c r="AO36" s="76"/>
+      <c r="AO36" s="105"/>
       <c r="AP36" s="73"/>
       <c r="AQ36" s="74"/>
       <c r="AR36" s="74"/>
@@ -4715,7 +4809,7 @@
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="83">
@@ -4745,7 +4839,7 @@
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
-      <c r="AB37" s="53"/>
+      <c r="AB37" s="104"/>
       <c r="AC37" s="54"/>
       <c r="AD37" s="55"/>
       <c r="AE37" s="55"/>
@@ -4758,7 +4852,7 @@
       <c r="AL37" s="55"/>
       <c r="AM37" s="56"/>
       <c r="AN37" s="57"/>
-      <c r="AO37" s="58"/>
+      <c r="AO37" s="105"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="55"/>
@@ -4814,7 +4908,7 @@
       <c r="Y38" s="56"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="58"/>
-      <c r="AB38" s="69"/>
+      <c r="AB38" s="104"/>
       <c r="AC38" s="70"/>
       <c r="AD38" s="55"/>
       <c r="AE38" s="55"/>
@@ -4827,7 +4921,7 @@
       <c r="AL38" s="55"/>
       <c r="AM38" s="56"/>
       <c r="AN38" s="57"/>
-      <c r="AO38" s="58"/>
+      <c r="AO38" s="105"/>
       <c r="AP38" s="69"/>
       <c r="AQ38" s="70"/>
       <c r="AR38" s="55"/>
@@ -4859,7 +4953,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -4888,7 +4982,7 @@
       <c r="Y39" s="74"/>
       <c r="Z39" s="75"/>
       <c r="AA39" s="76"/>
-      <c r="AB39" s="77"/>
+      <c r="AB39" s="104"/>
       <c r="AC39" s="74"/>
       <c r="AD39" s="74"/>
       <c r="AE39" s="74"/>
@@ -4901,7 +4995,7 @@
       <c r="AL39" s="74"/>
       <c r="AM39" s="75"/>
       <c r="AN39" s="75"/>
-      <c r="AO39" s="76"/>
+      <c r="AO39" s="105"/>
       <c r="AP39" s="73"/>
       <c r="AQ39" s="74"/>
       <c r="AR39" s="74"/>
@@ -4929,9 +5023,11 @@
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="49"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="49">
+        <v>2</v>
+      </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
         <v>0</v>
@@ -4959,7 +5055,7 @@
       <c r="Y40" s="56"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="58"/>
-      <c r="AB40" s="53"/>
+      <c r="AB40" s="104"/>
       <c r="AC40" s="54"/>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
@@ -4972,11 +5068,11 @@
       <c r="AL40" s="55"/>
       <c r="AM40" s="56"/>
       <c r="AN40" s="57"/>
-      <c r="AO40" s="58"/>
+      <c r="AO40" s="105"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="68"/>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5000,7 +5096,7 @@
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="83">
@@ -5030,7 +5126,7 @@
       <c r="Y41" s="56"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="58"/>
-      <c r="AB41" s="59"/>
+      <c r="AB41" s="104"/>
       <c r="AC41" s="60"/>
       <c r="AD41" s="55"/>
       <c r="AE41" s="55"/>
@@ -5043,7 +5139,7 @@
       <c r="AL41" s="55"/>
       <c r="AM41" s="56"/>
       <c r="AN41" s="57"/>
-      <c r="AO41" s="58"/>
+      <c r="AO41" s="105"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
@@ -5099,7 +5195,7 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="58"/>
-      <c r="AB42" s="69"/>
+      <c r="AB42" s="104"/>
       <c r="AC42" s="70"/>
       <c r="AD42" s="55"/>
       <c r="AE42" s="55"/>
@@ -5112,7 +5208,7 @@
       <c r="AL42" s="55"/>
       <c r="AM42" s="56"/>
       <c r="AN42" s="57"/>
-      <c r="AO42" s="58"/>
+      <c r="AO42" s="105"/>
       <c r="AP42" s="69"/>
       <c r="AQ42" s="70"/>
       <c r="AR42" s="55"/>
@@ -5142,7 +5238,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5400,7 +5496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5457,7 +5553,7 @@
       <c r="B4" s="96"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
@@ -5474,7 +5570,7 @@
       <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5491,7 +5587,7 @@
       <c r="B6" s="96"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
@@ -5523,7 +5619,7 @@
       <c r="B8" s="96"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE0F7B-4660-43DF-BFC5-EC2462DDAA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559F137-DE99-4A43-A52F-DE43F3B0B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -149,12 +149,6 @@
     <t>Arbeitsjournal nachführen</t>
   </si>
   <si>
-    <t>Anforderung #05</t>
-  </si>
-  <si>
-    <t>Anforderung #06</t>
-  </si>
-  <si>
     <t>Anforderung #07</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A003</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1426,6 +1426,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,38 +1484,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1595,10 +1591,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2176,8 +2172,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2298,7 +2294,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="86"/>
       <c r="H3" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2428,7 +2424,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2496,88 +2492,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91" t="s">
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91" t="s">
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91" t="s">
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93" t="s">
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="94"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="98"/>
+      <c r="BJ7" s="101"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2594,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>17</v>
@@ -2847,14 +2843,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2877,20 +2873,20 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="104"/>
+      <c r="AB10" s="94"/>
       <c r="AC10" s="54"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="56"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
       <c r="AN10" s="57"/>
-      <c r="AO10" s="105"/>
+      <c r="AO10" s="95"/>
       <c r="AP10" s="53"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="55"/>
@@ -2918,7 +2914,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="83">
@@ -2954,20 +2950,20 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="58"/>
-      <c r="AB11" s="104"/>
+      <c r="AB11" s="94"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="56"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="58"/>
       <c r="AI11" s="59"/>
       <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="56"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
       <c r="AN11" s="57"/>
-      <c r="AO11" s="105"/>
+      <c r="AO11" s="95"/>
       <c r="AP11" s="59"/>
       <c r="AQ11" s="60"/>
       <c r="AR11" s="61"/>
@@ -3026,23 +3022,23 @@
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="91"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="104"/>
+      <c r="AB12" s="94"/>
       <c r="AC12" s="60"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="100"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="100"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
       <c r="AN12" s="57"/>
-      <c r="AO12" s="105"/>
+      <c r="AO12" s="95"/>
       <c r="AP12" s="59"/>
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
@@ -3070,17 +3066,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3103,20 +3099,20 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="104"/>
+      <c r="AB13" s="94"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
       <c r="AN13" s="66"/>
-      <c r="AO13" s="105"/>
+      <c r="AO13" s="95"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
@@ -3177,9 +3173,9 @@
       <c r="Y14" s="74"/>
       <c r="Z14" s="75"/>
       <c r="AA14" s="76"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="55"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
       <c r="AE14" s="74"/>
       <c r="AF14" s="75"/>
       <c r="AG14" s="75"/>
@@ -3188,9 +3184,9 @@
       <c r="AJ14" s="74"/>
       <c r="AK14" s="74"/>
       <c r="AL14" s="74"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="105"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="95"/>
       <c r="AP14" s="73"/>
       <c r="AQ14" s="74"/>
       <c r="AR14" s="74"/>
@@ -3218,7 +3214,7 @@
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="49">
         <v>3</v>
@@ -3229,7 +3225,7 @@
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
@@ -3252,20 +3248,20 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
-      <c r="AB15" s="104"/>
+      <c r="AB15" s="94"/>
       <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="58"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="56"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
       <c r="AN15" s="57"/>
-      <c r="AO15" s="105"/>
+      <c r="AO15" s="95"/>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="54"/>
       <c r="AR15" s="55"/>
@@ -3293,7 +3289,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="49">
         <v>5</v>
@@ -3327,20 +3323,20 @@
       <c r="Y16" s="56"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
-      <c r="AB16" s="104"/>
+      <c r="AB16" s="94"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
       <c r="AN16" s="57"/>
-      <c r="AO16" s="105"/>
+      <c r="AO16" s="95"/>
       <c r="AP16" s="59"/>
       <c r="AQ16" s="60"/>
       <c r="AR16" s="55"/>
@@ -3396,20 +3392,20 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
-      <c r="AB17" s="104"/>
+      <c r="AB17" s="94"/>
       <c r="AC17" s="70"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="69"/>
       <c r="AJ17" s="70"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
       <c r="AN17" s="57"/>
-      <c r="AO17" s="105"/>
+      <c r="AO17" s="95"/>
       <c r="AP17" s="69"/>
       <c r="AQ17" s="70"/>
       <c r="AR17" s="55"/>
@@ -3441,7 +3437,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3470,10 +3466,10 @@
       <c r="Y18" s="74"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="76"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="74"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
       <c r="AF18" s="75"/>
       <c r="AG18" s="75"/>
       <c r="AH18" s="76"/>
@@ -3481,9 +3477,9 @@
       <c r="AJ18" s="74"/>
       <c r="AK18" s="74"/>
       <c r="AL18" s="74"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="105"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="95"/>
       <c r="AP18" s="73"/>
       <c r="AQ18" s="74"/>
       <c r="AR18" s="74"/>
@@ -3511,7 +3507,7 @@
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="83">
@@ -3541,20 +3537,20 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="104"/>
+      <c r="AB19" s="94"/>
       <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="56"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
       <c r="AN19" s="57"/>
-      <c r="AO19" s="105"/>
+      <c r="AO19" s="95"/>
       <c r="AP19" s="53"/>
       <c r="AQ19" s="54"/>
       <c r="AR19" s="55"/>
@@ -3582,7 +3578,7 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="49">
         <v>3</v>
@@ -3616,20 +3612,20 @@
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="104"/>
+      <c r="AB20" s="94"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
       <c r="AN20" s="57"/>
-      <c r="AO20" s="105"/>
+      <c r="AO20" s="95"/>
       <c r="AP20" s="59"/>
       <c r="AQ20" s="60"/>
       <c r="AR20" s="55"/>
@@ -3657,10 +3653,10 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
@@ -3689,20 +3685,20 @@
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
-      <c r="AB21" s="104"/>
+      <c r="AB21" s="94"/>
       <c r="AC21" s="60"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="56"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
       <c r="AG21" s="57"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
       <c r="AN21" s="57"/>
-      <c r="AO21" s="105"/>
+      <c r="AO21" s="95"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="55"/>
@@ -3730,10 +3726,10 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="49">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
@@ -3750,32 +3746,32 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="56"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="91"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="104"/>
+      <c r="AB22" s="94"/>
       <c r="AC22" s="60"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="56"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
       <c r="AN22" s="57"/>
-      <c r="AO22" s="105"/>
+      <c r="AO22" s="95"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
       <c r="AR22" s="55"/>
@@ -3803,10 +3799,10 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
@@ -3823,32 +3819,32 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="63"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="91"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="104"/>
+      <c r="AB23" s="94"/>
       <c r="AC23" s="60"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="56"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
       <c r="AG23" s="57"/>
       <c r="AH23" s="58"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="56"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
       <c r="AN23" s="57"/>
-      <c r="AO23" s="105"/>
+      <c r="AO23" s="95"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="61"/>
@@ -3876,10 +3872,10 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
@@ -3896,32 +3892,32 @@
       <c r="M24" s="58"/>
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="63"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="63"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="91"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="104"/>
+      <c r="AB24" s="94"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
+      <c r="AK24" s="53"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
       <c r="AN24" s="57"/>
-      <c r="AO24" s="105"/>
+      <c r="AO24" s="95"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
       <c r="AR24" s="68"/>
@@ -3949,9 +3945,11 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="49">
+        <v>12</v>
+      </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3969,30 +3967,30 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="100"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="104"/>
+      <c r="AB25" s="94"/>
       <c r="AC25" s="60"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
       <c r="AN25" s="57"/>
-      <c r="AO25" s="105"/>
+      <c r="AO25" s="95"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="68"/>
@@ -4020,9 +4018,11 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="49"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="49">
+        <v>5</v>
+      </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4040,33 +4040,33 @@
       <c r="O26" s="60"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
+      <c r="R26" s="63"/>
       <c r="S26" s="57"/>
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="100"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="104"/>
+      <c r="AB26" s="94"/>
       <c r="AC26" s="60"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="56"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
       <c r="AN26" s="57"/>
-      <c r="AO26" s="105"/>
+      <c r="AO26" s="95"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
+      <c r="AR26" s="68"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -4091,7 +4091,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="83">
@@ -4118,23 +4118,23 @@
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
       <c r="X27" s="55"/>
-      <c r="Y27" s="100"/>
+      <c r="Y27" s="91"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AB27" s="104"/>
+      <c r="AB27" s="94"/>
       <c r="AC27" s="60"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="56"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
       <c r="AN27" s="57"/>
-      <c r="AO27" s="105"/>
+      <c r="AO27" s="95"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
@@ -4162,7 +4162,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="83">
@@ -4189,23 +4189,23 @@
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="100"/>
+      <c r="Y28" s="91"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="104"/>
+      <c r="AB28" s="94"/>
       <c r="AC28" s="60"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="56"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
       <c r="AG28" s="57"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
       <c r="AN28" s="57"/>
-      <c r="AO28" s="105"/>
+      <c r="AO28" s="95"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
       <c r="AR28" s="55"/>
@@ -4233,7 +4233,7 @@
         <v>311</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="83">
@@ -4260,23 +4260,23 @@
       <c r="V29" s="72"/>
       <c r="W29" s="55"/>
       <c r="X29" s="55"/>
-      <c r="Y29" s="100"/>
+      <c r="Y29" s="91"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="104"/>
+      <c r="AB29" s="94"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
       <c r="AG29" s="57"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="71"/>
       <c r="AJ29" s="72"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
       <c r="AN29" s="57"/>
-      <c r="AO29" s="105"/>
+      <c r="AO29" s="95"/>
       <c r="AP29" s="71"/>
       <c r="AQ29" s="72"/>
       <c r="AR29" s="55"/>
@@ -4329,23 +4329,23 @@
       <c r="V30" s="70"/>
       <c r="W30" s="55"/>
       <c r="X30" s="55"/>
-      <c r="Y30" s="106"/>
+      <c r="Y30" s="96"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="104"/>
+      <c r="AB30" s="94"/>
       <c r="AC30" s="70"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
       <c r="AG30" s="57"/>
       <c r="AH30" s="58"/>
       <c r="AI30" s="69"/>
       <c r="AJ30" s="70"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
       <c r="AN30" s="57"/>
-      <c r="AO30" s="105"/>
+      <c r="AO30" s="95"/>
       <c r="AP30" s="69"/>
       <c r="AQ30" s="70"/>
       <c r="AR30" s="55"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4403,12 +4403,12 @@
       <c r="V31" s="74"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
-      <c r="Y31" s="102"/>
+      <c r="Y31" s="93"/>
       <c r="Z31" s="75"/>
       <c r="AA31" s="76"/>
-      <c r="AB31" s="104"/>
+      <c r="AB31" s="94"/>
       <c r="AC31" s="74"/>
-      <c r="AD31" s="103"/>
+      <c r="AD31" s="74"/>
       <c r="AE31" s="74"/>
       <c r="AF31" s="75"/>
       <c r="AG31" s="75"/>
@@ -4417,9 +4417,9 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="74"/>
       <c r="AL31" s="74"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="105"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="95"/>
       <c r="AP31" s="73"/>
       <c r="AQ31" s="74"/>
       <c r="AR31" s="74"/>
@@ -4447,10 +4447,10 @@
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
@@ -4479,20 +4479,20 @@
       <c r="Y32" s="63"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
-      <c r="AB32" s="104"/>
+      <c r="AB32" s="94"/>
       <c r="AC32" s="54"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="100"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
       <c r="AG32" s="57"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="100"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
       <c r="AN32" s="57"/>
-      <c r="AO32" s="105"/>
+      <c r="AO32" s="95"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="55"/>
@@ -4520,7 +4520,7 @@
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="49">
         <v>6</v>
@@ -4542,7 +4542,7 @@
       <c r="O33" s="60"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="R33" s="63"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
       <c r="U33" s="59"/>
@@ -4552,20 +4552,20 @@
       <c r="Y33" s="63"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="104"/>
+      <c r="AB33" s="94"/>
       <c r="AC33" s="60"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
       <c r="AG33" s="57"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="100"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
       <c r="AN33" s="57"/>
-      <c r="AO33" s="105"/>
+      <c r="AO33" s="95"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
       <c r="AR33" s="68"/>
@@ -4593,7 +4593,7 @@
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="49">
         <v>8</v>
@@ -4622,23 +4622,23 @@
       <c r="V34" s="60"/>
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
-      <c r="Y34" s="63"/>
+      <c r="Y34" s="91"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="104"/>
+      <c r="AB34" s="94"/>
       <c r="AC34" s="60"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="57"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="60"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="56"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
       <c r="AN34" s="57"/>
-      <c r="AO34" s="105"/>
+      <c r="AO34" s="95"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
       <c r="AR34" s="68"/>
@@ -4694,20 +4694,20 @@
       <c r="Y35" s="56"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="58"/>
-      <c r="AB35" s="104"/>
+      <c r="AB35" s="94"/>
       <c r="AC35" s="70"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
       <c r="AG35" s="57"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="69"/>
       <c r="AJ35" s="70"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="56"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
       <c r="AN35" s="57"/>
-      <c r="AO35" s="105"/>
+      <c r="AO35" s="95"/>
       <c r="AP35" s="69"/>
       <c r="AQ35" s="70"/>
       <c r="AR35" s="55"/>
@@ -4768,7 +4768,7 @@
       <c r="Y36" s="74"/>
       <c r="Z36" s="75"/>
       <c r="AA36" s="76"/>
-      <c r="AB36" s="104"/>
+      <c r="AB36" s="94"/>
       <c r="AC36" s="74"/>
       <c r="AD36" s="74"/>
       <c r="AE36" s="74"/>
@@ -4779,9 +4779,9 @@
       <c r="AJ36" s="74"/>
       <c r="AK36" s="74"/>
       <c r="AL36" s="74"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="105"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="95"/>
       <c r="AP36" s="73"/>
       <c r="AQ36" s="74"/>
       <c r="AR36" s="74"/>
@@ -4809,7 +4809,7 @@
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="83">
@@ -4839,20 +4839,20 @@
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
-      <c r="AB37" s="104"/>
+      <c r="AB37" s="94"/>
       <c r="AC37" s="54"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="56"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
       <c r="AG37" s="57"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="56"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
       <c r="AN37" s="57"/>
-      <c r="AO37" s="105"/>
+      <c r="AO37" s="95"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="55"/>
@@ -4908,20 +4908,20 @@
       <c r="Y38" s="56"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="58"/>
-      <c r="AB38" s="104"/>
+      <c r="AB38" s="94"/>
       <c r="AC38" s="70"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
       <c r="AG38" s="57"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="69"/>
       <c r="AJ38" s="70"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="56"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
       <c r="AN38" s="57"/>
-      <c r="AO38" s="105"/>
+      <c r="AO38" s="95"/>
       <c r="AP38" s="69"/>
       <c r="AQ38" s="70"/>
       <c r="AR38" s="55"/>
@@ -4982,7 +4982,7 @@
       <c r="Y39" s="74"/>
       <c r="Z39" s="75"/>
       <c r="AA39" s="76"/>
-      <c r="AB39" s="104"/>
+      <c r="AB39" s="94"/>
       <c r="AC39" s="74"/>
       <c r="AD39" s="74"/>
       <c r="AE39" s="74"/>
@@ -4993,9 +4993,9 @@
       <c r="AJ39" s="74"/>
       <c r="AK39" s="74"/>
       <c r="AL39" s="74"/>
-      <c r="AM39" s="75"/>
-      <c r="AN39" s="75"/>
-      <c r="AO39" s="105"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="95"/>
       <c r="AP39" s="73"/>
       <c r="AQ39" s="74"/>
       <c r="AR39" s="74"/>
@@ -5023,7 +5023,7 @@
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="49">
         <v>2</v>
@@ -5055,20 +5055,20 @@
       <c r="Y40" s="56"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="58"/>
-      <c r="AB40" s="104"/>
+      <c r="AB40" s="94"/>
       <c r="AC40" s="54"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="56"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
       <c r="AG40" s="57"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="54"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="56"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="53"/>
+      <c r="AM40" s="53"/>
       <c r="AN40" s="57"/>
-      <c r="AO40" s="105"/>
+      <c r="AO40" s="95"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="68"/>
@@ -5096,7 +5096,7 @@
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="83">
@@ -5126,20 +5126,20 @@
       <c r="Y41" s="56"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="58"/>
-      <c r="AB41" s="104"/>
+      <c r="AB41" s="94"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
       <c r="AG41" s="57"/>
       <c r="AH41" s="58"/>
       <c r="AI41" s="59"/>
       <c r="AJ41" s="60"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
       <c r="AN41" s="57"/>
-      <c r="AO41" s="105"/>
+      <c r="AO41" s="95"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
@@ -5195,20 +5195,20 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="58"/>
-      <c r="AB42" s="104"/>
+      <c r="AB42" s="94"/>
       <c r="AC42" s="70"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="56"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
       <c r="AG42" s="57"/>
       <c r="AH42" s="58"/>
       <c r="AI42" s="69"/>
       <c r="AJ42" s="70"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="56"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
       <c r="AN42" s="57"/>
-      <c r="AO42" s="105"/>
+      <c r="AO42" s="95"/>
       <c r="AP42" s="69"/>
       <c r="AQ42" s="70"/>
       <c r="AR42" s="55"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5517,10 +5517,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5529,11 +5529,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="102" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>5</v>
@@ -5546,11 +5546,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="102" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>8</v>
@@ -5563,14 +5563,14 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="102" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5580,14 +5580,14 @@
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="102" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
@@ -5596,11 +5596,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="102" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5612,11 +5612,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="102" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>2</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559F137-DE99-4A43-A52F-DE43F3B0B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E630483-840D-4D0E-A09E-2613CCEBB318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2172,8 +2173,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI18:AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3473,7 +3474,7 @@
       <c r="AF18" s="75"/>
       <c r="AG18" s="75"/>
       <c r="AH18" s="76"/>
-      <c r="AI18" s="73"/>
+      <c r="AI18" s="59"/>
       <c r="AJ18" s="74"/>
       <c r="AK18" s="74"/>
       <c r="AL18" s="74"/>
@@ -3544,7 +3545,7 @@
       <c r="AF19" s="54"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
-      <c r="AI19" s="53"/>
+      <c r="AI19" s="59"/>
       <c r="AJ19" s="54"/>
       <c r="AK19" s="53"/>
       <c r="AL19" s="53"/>
@@ -4526,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="83">
-        <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
+        <f>SUM(G33:BJ33)</f>
         <v>0</v>
       </c>
       <c r="E33" s="50"/>
@@ -4599,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="83">
-        <f t="shared" si="1"/>
+        <f>SUM(G34:BJ34)</f>
         <v>0</v>
       </c>
       <c r="E34" s="50"/>
@@ -4668,7 +4669,7 @@
       <c r="B35" s="46"/>
       <c r="C35" s="49"/>
       <c r="D35" s="83">
-        <f t="shared" si="1"/>
+        <f>SUM(G35:BJ35)</f>
         <v>0</v>
       </c>
       <c r="E35" s="50"/>
@@ -5100,7 +5101,7 @@
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="83">
-        <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
+        <f>SUM(G41:BJ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="50"/>
@@ -5169,7 +5170,7 @@
       <c r="B42" s="46"/>
       <c r="C42" s="49"/>
       <c r="D42" s="83">
-        <f t="shared" si="2"/>
+        <f>SUM(G42:BJ42)</f>
         <v>0</v>
       </c>
       <c r="E42" s="50"/>
@@ -5251,223 +5252,223 @@
         <v>0</v>
       </c>
       <c r="H43" s="39">
-        <f t="shared" ref="H43:AL43" si="3">SUM(H9:H42)</f>
+        <f t="shared" ref="H43:AL43" si="1">SUM(H9:H42)</f>
         <v>0</v>
       </c>
       <c r="I43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="39">
+        <f t="shared" ref="AM43:BD43" si="2">SUM(AM9:AM42)</f>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE43" s="39">
+        <f t="shared" ref="BE43:BJ43" si="3">SUM(BE9:BE42)</f>
+        <v>0</v>
+      </c>
+      <c r="BF43" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J43" s="39">
+      <c r="BG43" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K43" s="39">
+      <c r="BH43" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L43" s="39">
+      <c r="BI43" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="39">
+      <c r="BJ43" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM43" s="39">
-        <f t="shared" ref="AM43:BD43" si="4">SUM(AM9:AM42)</f>
-        <v>0</v>
-      </c>
-      <c r="AN43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BA43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BB43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE43" s="39">
-        <f t="shared" ref="BE43:BJ43" si="5">SUM(BE9:BE42)</f>
-        <v>0</v>
-      </c>
-      <c r="BF43" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG43" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH43" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI43" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ43" s="40">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E630483-840D-4D0E-A09E-2613CCEBB318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058B785-86FB-4AE7-AC37-426FAE26A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Benno Flory</author>
-    <author>Urs Nussbaumer</author>
   </authors>
   <commentList>
     <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -57,20 +55,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Roger)
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -265,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -357,14 +341,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,12 +454,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1126,7 +1098,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1451,10 +1423,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,6 +1453,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1586,22 +1566,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,13 +1640,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2173,8 +2153,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI18:AI27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2493,88 +2473,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="98" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="98" t="s">
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="100" t="s">
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="98" t="s">
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="100" t="s">
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="98" t="s">
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="100" t="s">
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="97"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="98"/>
-      <c r="BI7" s="98"/>
-      <c r="BJ7" s="101"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="97"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="97"/>
+      <c r="BJ7" s="100"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2771,11 +2751,11 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2995,11 +2975,11 @@
         <v>23</v>
       </c>
       <c r="C12" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3009,7 +2989,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>1</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3044,7 +3026,7 @@
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
       <c r="AS12" s="61"/>
-      <c r="AT12" s="56"/>
+      <c r="AT12" s="63"/>
       <c r="AU12" s="57"/>
       <c r="AV12" s="58"/>
       <c r="AW12" s="59"/>
@@ -3117,8 +3099,8 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="55"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="106"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3149,7 +3131,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3222,7 +3204,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -3230,9 +3212,15 @@
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="68">
+        <v>4</v>
+      </c>
+      <c r="J15" s="107">
+        <v>1</v>
+      </c>
+      <c r="K15" s="63">
+        <v>1</v>
+      </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
@@ -3297,7 +3285,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="50">
         <v>1</v>
@@ -3306,8 +3294,12 @@
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="J16" s="68">
+        <v>5</v>
+      </c>
+      <c r="K16" s="63">
+        <v>5</v>
+      </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3438,11 +3430,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3474,7 +3466,7 @@
       <c r="AF18" s="75"/>
       <c r="AG18" s="75"/>
       <c r="AH18" s="76"/>
-      <c r="AI18" s="59"/>
+      <c r="AI18" s="74"/>
       <c r="AJ18" s="74"/>
       <c r="AK18" s="74"/>
       <c r="AL18" s="74"/>
@@ -3510,18 +3502,24 @@
       <c r="B19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>5</v>
+      </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
+      <c r="J19" s="68">
+        <v>2</v>
+      </c>
+      <c r="K19" s="63">
+        <v>1</v>
+      </c>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
@@ -3582,7 +3580,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
@@ -3657,7 +3655,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
@@ -3730,7 +3728,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
@@ -3755,7 +3753,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="68"/>
-      <c r="X22" s="92"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="91"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -3803,7 +3801,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
@@ -3828,7 +3826,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="90"/>
-      <c r="X23" s="85"/>
+      <c r="X23" s="90"/>
       <c r="Y23" s="91"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -3876,7 +3874,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
@@ -3901,7 +3899,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="68"/>
-      <c r="X24" s="92"/>
+      <c r="X24" s="106"/>
       <c r="Y24" s="91"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
@@ -3921,7 +3919,7 @@
       <c r="AO24" s="95"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
-      <c r="AR24" s="68"/>
+      <c r="AR24" s="92"/>
       <c r="AS24" s="55"/>
       <c r="AT24" s="56"/>
       <c r="AU24" s="57"/>
@@ -3949,7 +3947,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
@@ -3968,12 +3966,12 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="63"/>
+      <c r="R25" s="91"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="68"/>
+      <c r="W25" s="92"/>
       <c r="X25" s="68"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
@@ -3995,8 +3993,8 @@
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="68"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="56"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="63"/>
       <c r="AU25" s="57"/>
       <c r="AV25" s="58"/>
       <c r="AW25" s="59"/>
@@ -4022,7 +4020,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
@@ -4041,14 +4039,14 @@
       <c r="O26" s="60"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
-      <c r="R26" s="63"/>
+      <c r="R26" s="91"/>
       <c r="S26" s="57"/>
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="63"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="91"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="94"/>
@@ -4067,7 +4065,7 @@
       <c r="AO26" s="95"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="68"/>
+      <c r="AR26" s="92"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -4330,7 +4328,7 @@
       <c r="V30" s="70"/>
       <c r="W30" s="55"/>
       <c r="X30" s="55"/>
-      <c r="Y30" s="96"/>
+      <c r="Y30" s="91"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
       <c r="AB30" s="94"/>
@@ -4378,7 +4376,7 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4524,7 +4522,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="83">
         <f>SUM(G33:BJ33)</f>
@@ -4597,7 +4595,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D34" s="83">
         <f>SUM(G34:BJ34)</f>
@@ -4954,7 +4952,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -5027,7 +5025,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
@@ -5239,11 +5237,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5257,15 +5255,15 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="1"/>
@@ -5518,10 +5516,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5530,65 +5528,65 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="str">
+      <c r="A3" s="101" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="str">
+      <c r="A4" s="101" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>8</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="str">
+      <c r="A5" s="101" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="str">
+      <c r="A6" s="101" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
@@ -5597,11 +5595,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="101" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5613,14 +5611,14 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="101" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058B785-86FB-4AE7-AC37-426FAE26A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F033E9D-3277-418D-B1F2-6D0AFA452B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11325" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1423,6 +1424,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,18 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1643,10 +1644,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2154,21 +2155,21 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2203,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2266,7 +2267,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2332,7 +2333,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2396,7 +2397,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2462,7 +2463,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2470,93 +2471,93 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="97" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="97" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99" t="s">
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="97" t="s">
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99" t="s">
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="97" t="s">
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="99" t="s">
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="101"/>
+      <c r="BD7" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="97"/>
-      <c r="BG7" s="97"/>
-      <c r="BH7" s="97"/>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="103"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3044,7 +3045,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3099,8 +3100,8 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="106"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="97"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3118,7 +3119,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3131,7 +3132,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3192,7 +3193,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -3215,7 +3216,7 @@
       <c r="I15" s="68">
         <v>4</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J15" s="98">
         <v>1</v>
       </c>
       <c r="K15" s="63">
@@ -3225,7 +3226,9 @@
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
       <c r="O15" s="54"/>
-      <c r="P15" s="68"/>
+      <c r="P15" s="68">
+        <v>1</v>
+      </c>
       <c r="Q15" s="55"/>
       <c r="R15" s="56"/>
       <c r="S15" s="57"/>
@@ -3273,7 +3276,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="50">
         <v>1</v>
@@ -3304,7 +3307,9 @@
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
       <c r="O16" s="60"/>
-      <c r="P16" s="68"/>
+      <c r="P16" s="68">
+        <v>1</v>
+      </c>
       <c r="Q16" s="55"/>
       <c r="R16" s="56"/>
       <c r="S16" s="57"/>
@@ -3352,7 +3357,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3421,7 +3426,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3434,7 +3439,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3495,7 +3500,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3584,7 +3589,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="50">
         <v>2</v>
@@ -3599,8 +3604,12 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="55"/>
+      <c r="P20" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>2</v>
+      </c>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3647,7 +3656,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3659,7 +3668,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3672,9 +3681,15 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
+      <c r="P21" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>3</v>
+      </c>
+      <c r="R21" s="68">
+        <v>2</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
@@ -3720,7 +3735,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3732,7 +3747,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3745,9 +3760,15 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="63"/>
+      <c r="P22" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>3</v>
+      </c>
+      <c r="R22" s="63">
+        <v>6</v>
+      </c>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3793,7 +3814,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3866,7 +3887,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3899,7 +3920,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="68"/>
-      <c r="X24" s="106"/>
+      <c r="X24" s="97"/>
       <c r="Y24" s="91"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
@@ -3939,7 +3960,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4012,7 +4033,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4085,7 +4106,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4156,7 +4177,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4227,7 +4248,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4298,7 +4319,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4367,7 +4388,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4441,7 +4462,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4514,7 +4535,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4587,7 +4608,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4660,7 +4681,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4729,7 +4750,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4803,7 +4824,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4874,7 +4895,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4943,7 +4964,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5017,7 +5038,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5090,7 +5111,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5161,7 +5182,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5230,7 +5251,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5241,7 +5262,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5283,15 +5304,15 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="1"/>
@@ -5505,21 +5526,21 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5527,12 +5548,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="str">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>3</v>
@@ -5544,46 +5565,46 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="str">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>8</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="str">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>55</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="str">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>7</v>
@@ -5594,12 +5615,12 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="str">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5610,12 +5631,12 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="str">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>5</v>
@@ -5626,7 +5647,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F033E9D-3277-418D-B1F2-6D0AFA452B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD524580-BEC3-4464-B905-85AFBBD4BED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11325" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1647,7 +1646,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2154,22 +2153,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2202,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2267,7 +2266,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2333,7 +2332,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2397,7 +2396,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2463,7 +2462,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2471,7 +2470,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="99" t="s">
@@ -2557,7 +2556,7 @@
       <c r="BI7" s="100"/>
       <c r="BJ7" s="103"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2891,7 +2890,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2968,7 +2967,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3045,7 +3044,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3119,7 +3118,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3193,7 +3192,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3276,7 +3275,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3357,7 +3356,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3426,7 +3425,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3439,7 +3438,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3500,7 +3499,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3668,7 +3667,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3694,7 +3693,9 @@
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="55"/>
+      <c r="W21" s="55">
+        <v>7</v>
+      </c>
       <c r="X21" s="55"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
@@ -3735,7 +3736,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3747,7 +3748,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3773,7 +3774,9 @@
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="68"/>
+      <c r="W22" s="68">
+        <v>1</v>
+      </c>
       <c r="X22" s="68"/>
       <c r="Y22" s="91"/>
       <c r="Z22" s="57"/>
@@ -3814,7 +3817,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3887,7 +3890,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3960,7 +3963,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4033,7 +4036,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4106,7 +4109,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4248,7 +4251,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4319,7 +4322,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4462,7 +4465,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4681,7 +4684,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4750,7 +4753,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4824,7 +4827,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4895,7 +4898,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4964,7 +4967,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5038,7 +5041,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5111,7 +5114,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5182,7 +5185,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5251,7 +5254,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5262,7 +5265,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5332,7 +5335,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="1"/>
@@ -5526,17 +5529,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="106" t="s">
         <v>13</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5565,7 +5568,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5582,7 +5585,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5594,12 +5597,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5615,7 +5618,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5631,7 +5634,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5647,7 +5650,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011815\Desktop\projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD524580-BEC3-4464-B905-85AFBBD4BED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF50163-4841-4E1F-AF8D-5B6D86B91FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1646,16 +1648,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,22 +2155,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AW32" sqref="AW32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2204,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2266,7 +2268,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2332,7 +2334,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2396,7 +2398,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2462,7 +2464,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2470,7 +2472,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="99" t="s">
@@ -2556,7 +2558,7 @@
       <c r="BI7" s="100"/>
       <c r="BJ7" s="103"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2816,7 +2818,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2890,7 +2892,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2967,7 +2969,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3044,7 +3046,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3118,7 +3120,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3192,7 +3194,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3275,7 +3277,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3356,7 +3358,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3438,7 +3440,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3499,7 +3501,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3576,7 +3578,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3667,7 +3669,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3696,8 +3698,12 @@
       <c r="W21" s="55">
         <v>7</v>
       </c>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="X21" s="55">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="56">
+        <v>1</v>
+      </c>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="94"/>
@@ -3716,7 +3722,9 @@
       <c r="AO21" s="95"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
-      <c r="AR21" s="55"/>
+      <c r="AR21" s="55">
+        <v>3</v>
+      </c>
       <c r="AS21" s="55"/>
       <c r="AT21" s="56"/>
       <c r="AU21" s="57"/>
@@ -3736,7 +3744,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3748,7 +3756,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>26.5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3777,8 +3785,12 @@
       <c r="W22" s="68">
         <v>1</v>
       </c>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="91"/>
+      <c r="X22" s="68">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="91">
+        <v>2</v>
+      </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="94"/>
@@ -3797,8 +3809,12 @@
       <c r="AO22" s="95"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
+      <c r="AR22" s="55">
+        <v>4</v>
+      </c>
+      <c r="AS22" s="55">
+        <v>5</v>
+      </c>
       <c r="AT22" s="56"/>
       <c r="AU22" s="57"/>
       <c r="AV22" s="58"/>
@@ -3817,7 +3833,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3829,7 +3845,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3851,7 +3867,9 @@
       <c r="V23" s="60"/>
       <c r="W23" s="90"/>
       <c r="X23" s="90"/>
-      <c r="Y23" s="91"/>
+      <c r="Y23" s="91">
+        <v>2</v>
+      </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="94"/>
@@ -3871,8 +3889,12 @@
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="61"/>
-      <c r="AS23" s="61"/>
-      <c r="AT23" s="56"/>
+      <c r="AS23" s="61">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="56">
+        <v>4</v>
+      </c>
       <c r="AU23" s="57"/>
       <c r="AV23" s="58"/>
       <c r="AW23" s="59"/>
@@ -3890,7 +3912,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3902,7 +3924,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3945,7 +3967,9 @@
       <c r="AQ24" s="60"/>
       <c r="AR24" s="92"/>
       <c r="AS24" s="55"/>
-      <c r="AT24" s="56"/>
+      <c r="AT24" s="56">
+        <v>2</v>
+      </c>
       <c r="AU24" s="57"/>
       <c r="AV24" s="58"/>
       <c r="AW24" s="59"/>
@@ -3963,7 +3987,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4036,7 +4060,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4109,7 +4133,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4180,7 +4204,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4251,7 +4275,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4322,7 +4346,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4391,7 +4415,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4404,7 +4428,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4465,7 +4489,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4538,7 +4562,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4550,7 +4574,7 @@
       </c>
       <c r="D33" s="83">
         <f>SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4572,7 +4596,9 @@
       <c r="V33" s="60"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="63"/>
+      <c r="Y33" s="63">
+        <v>3</v>
+      </c>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="94"/>
@@ -4611,7 +4637,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4623,7 +4649,7 @@
       </c>
       <c r="D34" s="83">
         <f>SUM(G34:BJ34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4666,7 +4692,9 @@
       <c r="AQ34" s="60"/>
       <c r="AR34" s="68"/>
       <c r="AS34" s="68"/>
-      <c r="AT34" s="56"/>
+      <c r="AT34" s="56">
+        <v>2</v>
+      </c>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -4684,7 +4712,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4753,7 +4781,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4827,7 +4855,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4898,7 +4926,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4967,7 +4995,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -4980,7 +5008,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5041,7 +5069,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5053,7 +5081,7 @@
       </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5094,8 +5122,12 @@
       <c r="AO40" s="95"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="68"/>
-      <c r="AS40" s="68"/>
+      <c r="AR40" s="68">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="68">
+        <v>1</v>
+      </c>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5114,7 +5146,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5185,7 +5217,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5254,7 +5286,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5265,7 +5297,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5339,11 +5371,11 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="1"/>
@@ -5419,15 +5451,15 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="2"/>
@@ -5529,17 +5561,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
         <v>13</v>
       </c>
@@ -5551,7 +5583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5568,7 +5600,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5585,7 +5617,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5597,12 +5629,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5614,11 +5646,11 @@
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5634,7 +5666,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5646,11 +5678,11 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>
